--- a/MachineLearning/SampleDatabases/BinaryClassification.xlsx
+++ b/MachineLearning/SampleDatabases/BinaryClassification.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dat Nguyen\Desktop\TestDatabases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78E8FDE-BCF6-4C22-B531-02FE81134E56}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C9E372-ACDF-428A-9B0D-6280F8DC0440}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{419FF5BE-5E5D-4E1D-8D91-7484877C59FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="XOR" sheetId="6" r:id="rId1"/>
-    <sheet name="YinYang" sheetId="1" r:id="rId2"/>
-    <sheet name="Circle" sheetId="2" r:id="rId3"/>
-    <sheet name="Triangle" sheetId="3" r:id="rId4"/>
-    <sheet name="Rectangle" sheetId="5" r:id="rId5"/>
-    <sheet name="Star" sheetId="4" r:id="rId6"/>
+    <sheet name="YinYang" sheetId="1" r:id="rId1"/>
+    <sheet name="Circle" sheetId="2" r:id="rId2"/>
+    <sheet name="Triangle" sheetId="3" r:id="rId3"/>
+    <sheet name="Rectangle" sheetId="5" r:id="rId4"/>
+    <sheet name="Star" sheetId="4" r:id="rId5"/>
+    <sheet name="Angle" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -398,8 +398,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677412F6-5DE7-45B7-824D-782D238B6741}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B9B4F1-4119-4C49-970B-9C685E591D71}">
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,10 +418,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>-0.87684742778225599</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.9963188241991301</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -429,35 +429,1091 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0</v>
+        <v>-0.74875932486968499</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.9972485141665599</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>-0.63557469450120996</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.9780465788583801</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>-0.51376907106219205</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.9732247772896601</v>
       </c>
       <c r="C5">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-0.38257754728409299</v>
+      </c>
+      <c r="B6">
+        <v>1.9550772239073899</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-0.27514421113410398</v>
+      </c>
+      <c r="B7">
+        <v>1.9238137888255999</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-0.15680275249460501</v>
+      </c>
+      <c r="B8">
+        <v>1.9492196945100499</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-4.6002058548183102E-2</v>
+      </c>
+      <c r="B9">
+        <v>1.89534254245404</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8.4152257362931596E-2</v>
+      </c>
+      <c r="B10">
+        <v>1.8731040817892499</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.19206313136370801</v>
+      </c>
+      <c r="B11">
+        <v>1.8681575322530899</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.23854703236042399</v>
+      </c>
+      <c r="B12">
+        <v>1.8116641653633601</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.381412694469276</v>
+      </c>
+      <c r="B13">
+        <v>1.8308699246168501</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.43118211883723101</v>
+      </c>
+      <c r="B14">
+        <v>1.7553124793934201</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.56258908237801797</v>
+      </c>
+      <c r="B15">
+        <v>1.7254448058552201</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0.55329426882872701</v>
+      </c>
+      <c r="B16">
+        <v>1.68904788552912</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.730976261421586</v>
+      </c>
+      <c r="B17">
+        <v>1.6105220635383699</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0.72216498144128305</v>
+      </c>
+      <c r="B18">
+        <v>1.6331129520860701</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.86106930227802503</v>
+      </c>
+      <c r="B19">
+        <v>1.5624501965089399</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.82510794508343999</v>
+      </c>
+      <c r="B20">
+        <v>1.4358462251239801</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0.82526113243735999</v>
+      </c>
+      <c r="B21">
+        <v>1.4563911964154601</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.94872162601077004</v>
+      </c>
+      <c r="B22">
+        <v>1.3933675521373099</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1.0017052775838999</v>
+      </c>
+      <c r="B23">
+        <v>1.27576844658262</v>
+      </c>
+      <c r="C23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0.96678866682362297</v>
+      </c>
+      <c r="B24">
+        <v>1.32137523307275</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1.0308289439926901</v>
+      </c>
+      <c r="B25">
+        <v>1.2284370225454</v>
+      </c>
+      <c r="C25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1.08319563558295</v>
+      </c>
+      <c r="B26">
+        <v>1.1430115893454</v>
+      </c>
+      <c r="C26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.92087642175838402</v>
+      </c>
+      <c r="B27">
+        <v>1.0378543880619</v>
+      </c>
+      <c r="C27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0.99451827654759895</v>
+      </c>
+      <c r="B28">
+        <v>1.0649710225670701</v>
+      </c>
+      <c r="C28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0.954169422387943</v>
+      </c>
+      <c r="B29">
+        <v>0.93808421111658402</v>
+      </c>
+      <c r="C29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.90358608314433997</v>
+      </c>
+      <c r="B30">
+        <v>0.98525534059627495</v>
+      </c>
+      <c r="C30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0.87786985432447795</v>
+      </c>
+      <c r="B31">
+        <v>0.72914352468562005</v>
+      </c>
+      <c r="C31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0.86659401832942196</v>
+      </c>
+      <c r="B32">
+        <v>0.75025733972045805</v>
+      </c>
+      <c r="C32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0.75727838893833999</v>
+      </c>
+      <c r="B33">
+        <v>0.63891782224289195</v>
+      </c>
+      <c r="C33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0.65548951503696995</v>
+      </c>
+      <c r="B34">
+        <v>0.67071740644632605</v>
+      </c>
+      <c r="C34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0.68763962591788097</v>
+      </c>
+      <c r="B35">
+        <v>0.51165556303495296</v>
+      </c>
+      <c r="C35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0.65636507794671195</v>
+      </c>
+      <c r="B36">
+        <v>0.63854234588036995</v>
+      </c>
+      <c r="C36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0.49177591404322801</v>
+      </c>
+      <c r="B37">
+        <v>0.40187480159536898</v>
+      </c>
+      <c r="C37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0.355044890344968</v>
+      </c>
+      <c r="B38">
+        <v>0.389639670058464</v>
+      </c>
+      <c r="C38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0.27561656791321498</v>
+      </c>
+      <c r="B39">
+        <v>0.18295812612651699</v>
+      </c>
+      <c r="C39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0.33847103709384202</v>
+      </c>
+      <c r="B40">
+        <v>0.102347681685709</v>
+      </c>
+      <c r="C40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0.10391809494267</v>
+      </c>
+      <c r="B41">
+        <v>0.15296096122637001</v>
+      </c>
+      <c r="C41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0.238473941423481</v>
+      </c>
+      <c r="B42">
+        <v>-7.0899965008196106E-2</v>
+      </c>
+      <c r="C42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-6.5775395108331799E-3</v>
+      </c>
+      <c r="B43">
+        <v>0.16810793103585001</v>
+      </c>
+      <c r="C43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-9.1307057692939994E-2</v>
+      </c>
+      <c r="B44">
+        <v>-3.2174399094991403E-2</v>
+      </c>
+      <c r="C44">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-0.29077203355173997</v>
+      </c>
+      <c r="B45">
+        <v>-0.34502568876706302</v>
+      </c>
+      <c r="C45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>-0.28755525306199697</v>
+      </c>
+      <c r="B46">
+        <v>-0.39798432282592699</v>
+      </c>
+      <c r="C46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-0.36342461763283801</v>
+      </c>
+      <c r="B47">
+        <v>-0.36563680770919199</v>
+      </c>
+      <c r="C47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>-0.54407169101180997</v>
+      </c>
+      <c r="B48">
+        <v>-0.51297064376190304</v>
+      </c>
+      <c r="C48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-0.70989679971547803</v>
+      </c>
+      <c r="B49">
+        <v>-0.54654921041875704</v>
+      </c>
+      <c r="C49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>-1.0078572162869599</v>
+      </c>
+      <c r="B50">
+        <v>-0.81183722436983796</v>
+      </c>
+      <c r="C50">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>-0.93278712214462001</v>
+      </c>
+      <c r="B51">
+        <v>-0.68797327589245105</v>
+      </c>
+      <c r="C51">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>-0.12398764900788201</v>
+      </c>
+      <c r="B52">
+        <v>-1.5479764826371101</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>-0.24723670146521701</v>
+      </c>
+      <c r="B53">
+        <v>-1.54662946135943</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>-0.36935768204764102</v>
+      </c>
+      <c r="B54">
+        <v>-1.53396875518735</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>-0.49789217799987801</v>
+      </c>
+      <c r="B55">
+        <v>-1.52559795179504</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>-0.60699869927753802</v>
+      </c>
+      <c r="B56">
+        <v>-1.5183862288535701</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-0.75155697570783697</v>
+      </c>
+      <c r="B57">
+        <v>-1.4642703196395599</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>-0.85884861881094998</v>
+      </c>
+      <c r="B58">
+        <v>-1.4641422891700699</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>-0.957834238130025</v>
+      </c>
+      <c r="B59">
+        <v>-1.4541658880337101</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>-1.0616026983250899</v>
+      </c>
+      <c r="B60">
+        <v>-1.4447832157624001</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>-1.1696343429218801</v>
+      </c>
+      <c r="B61">
+        <v>-1.42603350749434</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>-1.2721158953740299</v>
+      </c>
+      <c r="B62">
+        <v>-1.4086788168052999</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>-1.3803832927470601</v>
+      </c>
+      <c r="B63">
+        <v>-1.34565144246206</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>-1.4808665738869899</v>
+      </c>
+      <c r="B64">
+        <v>-1.2799552024671299</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>-1.5489276641063301</v>
+      </c>
+      <c r="B65">
+        <v>-1.2232625413331499</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>-1.59788681937383</v>
+      </c>
+      <c r="B66">
+        <v>-1.22711593580737</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>-1.6867114966075401</v>
+      </c>
+      <c r="B67">
+        <v>-1.1418982758287699</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>-1.81268905111533</v>
+      </c>
+      <c r="B68">
+        <v>-1.14805053009159</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>-1.80984133637657</v>
+      </c>
+      <c r="B69">
+        <v>-1.08334760169182</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>-1.9388507107264199</v>
+      </c>
+      <c r="B70">
+        <v>-1.0197237417696301</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>-1.9745526793288399</v>
+      </c>
+      <c r="B71">
+        <v>-0.97051542160503201</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>-1.95318435886883</v>
+      </c>
+      <c r="B72">
+        <v>-0.88363120994800903</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>-1.98749965029243</v>
+      </c>
+      <c r="B73">
+        <v>-0.86187977198795696</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>-2.0421555395651998</v>
+      </c>
+      <c r="B74">
+        <v>-0.79781381508159399</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>-1.9841857342059399</v>
+      </c>
+      <c r="B75">
+        <v>-0.82698683467539003</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>-2.06330760479235</v>
+      </c>
+      <c r="B76">
+        <v>-0.74949521262577601</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>-1.9642741340614001</v>
+      </c>
+      <c r="B77">
+        <v>-0.65363977918520499</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>-2.0202581552530501</v>
+      </c>
+      <c r="B78">
+        <v>-0.53043161525989002</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>-1.94608199606774</v>
+      </c>
+      <c r="B79">
+        <v>-0.514425683121564</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>-1.9343560063130401</v>
+      </c>
+      <c r="B80">
+        <v>-0.43538042293790802</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>-1.8270176575258601</v>
+      </c>
+      <c r="B81">
+        <v>-0.42505800432903801</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>-1.7883858888130499</v>
+      </c>
+      <c r="B82">
+        <v>-0.31244351335348097</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>-1.8008740334512801</v>
+      </c>
+      <c r="B83">
+        <v>-0.23731296859944601</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>-1.78422512579098</v>
+      </c>
+      <c r="B84">
+        <v>1.3987951279964999E-2</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>-1.6828283205710699</v>
+      </c>
+      <c r="B85">
+        <v>-6.3911465224581604E-2</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>-1.7540424711000699</v>
+      </c>
+      <c r="B86">
+        <v>-7.5520653436996196E-2</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>-1.5680733002359899</v>
+      </c>
+      <c r="B87">
+        <v>0.11079503593053699</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>-1.4383332681173799</v>
+      </c>
+      <c r="B88">
+        <v>0.17023056081024701</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>-1.3566146614046599</v>
+      </c>
+      <c r="B89">
+        <v>0.16361384079798599</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>-1.33636239703231</v>
+      </c>
+      <c r="B90">
+        <v>0.33453775602189201</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>-1.29667760727799</v>
+      </c>
+      <c r="B91">
+        <v>0.316006907420459</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>-1.1099088574660101</v>
+      </c>
+      <c r="B92">
+        <v>0.47403664630567799</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>-0.84592917374608601</v>
+      </c>
+      <c r="B93">
+        <v>0.48530388380399297</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>-0.855794710826973</v>
+      </c>
+      <c r="B94">
+        <v>0.39560311765589401</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>-0.68479254980930204</v>
+      </c>
+      <c r="B95">
+        <v>0.67116624491916099</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>-0.51422225152184897</v>
+      </c>
+      <c r="B96">
+        <v>0.65206555424679502</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>-0.387612556799943</v>
+      </c>
+      <c r="B97">
+        <v>0.700858902286844</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>-0.51939719025496001</v>
+      </c>
+      <c r="B98">
+        <v>1.0257353350435301</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>-0.228760024694072</v>
+      </c>
+      <c r="B99">
+        <v>0.93490314038377897</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>-0.29378247724411899</v>
+      </c>
+      <c r="B100">
+        <v>1.00886167797763</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1.34310122427387E-2</v>
+      </c>
+      <c r="B101">
+        <v>1.0820215252704299</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -466,10 +1522,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B9B4F1-4119-4C49-970B-9C685E591D71}">
-  <dimension ref="A1:C101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE95D28C-B72D-4B0F-B21C-BBF245F45354}">
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -485,1130 +1541,6 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>-0.87684742778225599</v>
-      </c>
-      <c r="B2">
-        <v>1.9963188241991301</v>
-      </c>
-      <c r="C2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>-0.74875932486968499</v>
-      </c>
-      <c r="B3">
-        <v>1.9972485141665599</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>-0.63557469450120996</v>
-      </c>
-      <c r="B4">
-        <v>1.9780465788583801</v>
-      </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>-0.51376907106219205</v>
-      </c>
-      <c r="B5">
-        <v>1.9732247772896601</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>-0.38257754728409299</v>
-      </c>
-      <c r="B6">
-        <v>1.9550772239073899</v>
-      </c>
-      <c r="C6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>-0.27514421113410398</v>
-      </c>
-      <c r="B7">
-        <v>1.9238137888255999</v>
-      </c>
-      <c r="C7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>-0.15680275249460501</v>
-      </c>
-      <c r="B8">
-        <v>1.9492196945100499</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>-4.6002058548183102E-2</v>
-      </c>
-      <c r="B9">
-        <v>1.89534254245404</v>
-      </c>
-      <c r="C9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8.4152257362931596E-2</v>
-      </c>
-      <c r="B10">
-        <v>1.8731040817892499</v>
-      </c>
-      <c r="C10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>0.19206313136370801</v>
-      </c>
-      <c r="B11">
-        <v>1.8681575322530899</v>
-      </c>
-      <c r="C11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>0.23854703236042399</v>
-      </c>
-      <c r="B12">
-        <v>1.8116641653633601</v>
-      </c>
-      <c r="C12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>0.381412694469276</v>
-      </c>
-      <c r="B13">
-        <v>1.8308699246168501</v>
-      </c>
-      <c r="C13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>0.43118211883723101</v>
-      </c>
-      <c r="B14">
-        <v>1.7553124793934201</v>
-      </c>
-      <c r="C14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>0.56258908237801797</v>
-      </c>
-      <c r="B15">
-        <v>1.7254448058552201</v>
-      </c>
-      <c r="C15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>0.55329426882872701</v>
-      </c>
-      <c r="B16">
-        <v>1.68904788552912</v>
-      </c>
-      <c r="C16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>0.730976261421586</v>
-      </c>
-      <c r="B17">
-        <v>1.6105220635383699</v>
-      </c>
-      <c r="C17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>0.72216498144128305</v>
-      </c>
-      <c r="B18">
-        <v>1.6331129520860701</v>
-      </c>
-      <c r="C18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>0.86106930227802503</v>
-      </c>
-      <c r="B19">
-        <v>1.5624501965089399</v>
-      </c>
-      <c r="C19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>0.82510794508343999</v>
-      </c>
-      <c r="B20">
-        <v>1.4358462251239801</v>
-      </c>
-      <c r="C20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>0.82526113243735999</v>
-      </c>
-      <c r="B21">
-        <v>1.4563911964154601</v>
-      </c>
-      <c r="C21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>0.94872162601077004</v>
-      </c>
-      <c r="B22">
-        <v>1.3933675521373099</v>
-      </c>
-      <c r="C22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>1.0017052775838999</v>
-      </c>
-      <c r="B23">
-        <v>1.27576844658262</v>
-      </c>
-      <c r="C23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>0.96678866682362297</v>
-      </c>
-      <c r="B24">
-        <v>1.32137523307275</v>
-      </c>
-      <c r="C24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>1.0308289439926901</v>
-      </c>
-      <c r="B25">
-        <v>1.2284370225454</v>
-      </c>
-      <c r="C25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>1.08319563558295</v>
-      </c>
-      <c r="B26">
-        <v>1.1430115893454</v>
-      </c>
-      <c r="C26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>0.92087642175838402</v>
-      </c>
-      <c r="B27">
-        <v>1.0378543880619</v>
-      </c>
-      <c r="C27">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>0.99451827654759895</v>
-      </c>
-      <c r="B28">
-        <v>1.0649710225670701</v>
-      </c>
-      <c r="C28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>0.954169422387943</v>
-      </c>
-      <c r="B29">
-        <v>0.93808421111658402</v>
-      </c>
-      <c r="C29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>0.90358608314433997</v>
-      </c>
-      <c r="B30">
-        <v>0.98525534059627495</v>
-      </c>
-      <c r="C30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>0.87786985432447795</v>
-      </c>
-      <c r="B31">
-        <v>0.72914352468562005</v>
-      </c>
-      <c r="C31">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>0.86659401832942196</v>
-      </c>
-      <c r="B32">
-        <v>0.75025733972045805</v>
-      </c>
-      <c r="C32">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>0.75727838893833999</v>
-      </c>
-      <c r="B33">
-        <v>0.63891782224289195</v>
-      </c>
-      <c r="C33">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>0.65548951503696995</v>
-      </c>
-      <c r="B34">
-        <v>0.67071740644632605</v>
-      </c>
-      <c r="C34">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>0.68763962591788097</v>
-      </c>
-      <c r="B35">
-        <v>0.51165556303495296</v>
-      </c>
-      <c r="C35">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>0.65636507794671195</v>
-      </c>
-      <c r="B36">
-        <v>0.63854234588036995</v>
-      </c>
-      <c r="C36">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>0.49177591404322801</v>
-      </c>
-      <c r="B37">
-        <v>0.40187480159536898</v>
-      </c>
-      <c r="C37">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>0.355044890344968</v>
-      </c>
-      <c r="B38">
-        <v>0.389639670058464</v>
-      </c>
-      <c r="C38">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>0.27561656791321498</v>
-      </c>
-      <c r="B39">
-        <v>0.18295812612651699</v>
-      </c>
-      <c r="C39">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>0.33847103709384202</v>
-      </c>
-      <c r="B40">
-        <v>0.102347681685709</v>
-      </c>
-      <c r="C40">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>0.10391809494267</v>
-      </c>
-      <c r="B41">
-        <v>0.15296096122637001</v>
-      </c>
-      <c r="C41">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>0.238473941423481</v>
-      </c>
-      <c r="B42">
-        <v>-7.0899965008196106E-2</v>
-      </c>
-      <c r="C42">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>-6.5775395108331799E-3</v>
-      </c>
-      <c r="B43">
-        <v>0.16810793103585001</v>
-      </c>
-      <c r="C43">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>-9.1307057692939994E-2</v>
-      </c>
-      <c r="B44">
-        <v>-3.2174399094991403E-2</v>
-      </c>
-      <c r="C44">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>-0.29077203355173997</v>
-      </c>
-      <c r="B45">
-        <v>-0.34502568876706302</v>
-      </c>
-      <c r="C45">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>-0.28755525306199697</v>
-      </c>
-      <c r="B46">
-        <v>-0.39798432282592699</v>
-      </c>
-      <c r="C46">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>-0.36342461763283801</v>
-      </c>
-      <c r="B47">
-        <v>-0.36563680770919199</v>
-      </c>
-      <c r="C47">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>-0.54407169101180997</v>
-      </c>
-      <c r="B48">
-        <v>-0.51297064376190304</v>
-      </c>
-      <c r="C48">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>-0.70989679971547803</v>
-      </c>
-      <c r="B49">
-        <v>-0.54654921041875704</v>
-      </c>
-      <c r="C49">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>-1.0078572162869599</v>
-      </c>
-      <c r="B50">
-        <v>-0.81183722436983796</v>
-      </c>
-      <c r="C50">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>-0.93278712214462001</v>
-      </c>
-      <c r="B51">
-        <v>-0.68797327589245105</v>
-      </c>
-      <c r="C51">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>-0.12398764900788201</v>
-      </c>
-      <c r="B52">
-        <v>-1.5479764826371101</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>-0.24723670146521701</v>
-      </c>
-      <c r="B53">
-        <v>-1.54662946135943</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>-0.36935768204764102</v>
-      </c>
-      <c r="B54">
-        <v>-1.53396875518735</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>-0.49789217799987801</v>
-      </c>
-      <c r="B55">
-        <v>-1.52559795179504</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>-0.60699869927753802</v>
-      </c>
-      <c r="B56">
-        <v>-1.5183862288535701</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>-0.75155697570783697</v>
-      </c>
-      <c r="B57">
-        <v>-1.4642703196395599</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>-0.85884861881094998</v>
-      </c>
-      <c r="B58">
-        <v>-1.4641422891700699</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>-0.957834238130025</v>
-      </c>
-      <c r="B59">
-        <v>-1.4541658880337101</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>-1.0616026983250899</v>
-      </c>
-      <c r="B60">
-        <v>-1.4447832157624001</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>-1.1696343429218801</v>
-      </c>
-      <c r="B61">
-        <v>-1.42603350749434</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>-1.2721158953740299</v>
-      </c>
-      <c r="B62">
-        <v>-1.4086788168052999</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>-1.3803832927470601</v>
-      </c>
-      <c r="B63">
-        <v>-1.34565144246206</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>-1.4808665738869899</v>
-      </c>
-      <c r="B64">
-        <v>-1.2799552024671299</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>-1.5489276641063301</v>
-      </c>
-      <c r="B65">
-        <v>-1.2232625413331499</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>-1.59788681937383</v>
-      </c>
-      <c r="B66">
-        <v>-1.22711593580737</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>-1.6867114966075401</v>
-      </c>
-      <c r="B67">
-        <v>-1.1418982758287699</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>-1.81268905111533</v>
-      </c>
-      <c r="B68">
-        <v>-1.14805053009159</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>-1.80984133637657</v>
-      </c>
-      <c r="B69">
-        <v>-1.08334760169182</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>-1.9388507107264199</v>
-      </c>
-      <c r="B70">
-        <v>-1.0197237417696301</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>-1.9745526793288399</v>
-      </c>
-      <c r="B71">
-        <v>-0.97051542160503201</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>-1.95318435886883</v>
-      </c>
-      <c r="B72">
-        <v>-0.88363120994800903</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>-1.98749965029243</v>
-      </c>
-      <c r="B73">
-        <v>-0.86187977198795696</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>-2.0421555395651998</v>
-      </c>
-      <c r="B74">
-        <v>-0.79781381508159399</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>-1.9841857342059399</v>
-      </c>
-      <c r="B75">
-        <v>-0.82698683467539003</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>-2.06330760479235</v>
-      </c>
-      <c r="B76">
-        <v>-0.74949521262577601</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>-1.9642741340614001</v>
-      </c>
-      <c r="B77">
-        <v>-0.65363977918520499</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>-2.0202581552530501</v>
-      </c>
-      <c r="B78">
-        <v>-0.53043161525989002</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>-1.94608199606774</v>
-      </c>
-      <c r="B79">
-        <v>-0.514425683121564</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>-1.9343560063130401</v>
-      </c>
-      <c r="B80">
-        <v>-0.43538042293790802</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>-1.8270176575258601</v>
-      </c>
-      <c r="B81">
-        <v>-0.42505800432903801</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>-1.7883858888130499</v>
-      </c>
-      <c r="B82">
-        <v>-0.31244351335348097</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>-1.8008740334512801</v>
-      </c>
-      <c r="B83">
-        <v>-0.23731296859944601</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>-1.78422512579098</v>
-      </c>
-      <c r="B84">
-        <v>1.3987951279964999E-2</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>-1.6828283205710699</v>
-      </c>
-      <c r="B85">
-        <v>-6.3911465224581604E-2</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>-1.7540424711000699</v>
-      </c>
-      <c r="B86">
-        <v>-7.5520653436996196E-2</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>-1.5680733002359899</v>
-      </c>
-      <c r="B87">
-        <v>0.11079503593053699</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>-1.4383332681173799</v>
-      </c>
-      <c r="B88">
-        <v>0.17023056081024701</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>-1.3566146614046599</v>
-      </c>
-      <c r="B89">
-        <v>0.16361384079798599</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90">
-        <v>-1.33636239703231</v>
-      </c>
-      <c r="B90">
-        <v>0.33453775602189201</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>-1.29667760727799</v>
-      </c>
-      <c r="B91">
-        <v>0.316006907420459</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>-1.1099088574660101</v>
-      </c>
-      <c r="B92">
-        <v>0.47403664630567799</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>-0.84592917374608601</v>
-      </c>
-      <c r="B93">
-        <v>0.48530388380399297</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>-0.855794710826973</v>
-      </c>
-      <c r="B94">
-        <v>0.39560311765589401</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>-0.68479254980930204</v>
-      </c>
-      <c r="B95">
-        <v>0.67116624491916099</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>-0.51422225152184897</v>
-      </c>
-      <c r="B96">
-        <v>0.65206555424679502</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>-0.387612556799943</v>
-      </c>
-      <c r="B97">
-        <v>0.700858902286844</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>-0.51939719025496001</v>
-      </c>
-      <c r="B98">
-        <v>1.0257353350435301</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>-0.228760024694072</v>
-      </c>
-      <c r="B99">
-        <v>0.93490314038377897</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>-0.29378247724411899</v>
-      </c>
-      <c r="B100">
-        <v>1.00886167797763</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>1.34310122427387E-2</v>
-      </c>
-      <c r="B101">
-        <v>1.0820215252704299</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE95D28C-B72D-4B0F-B21C-BBF245F45354}">
-  <dimension ref="A1:C102"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0.56629834254143596</v>
       </c>
@@ -2725,12 +2657,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133B4145-9E15-4140-AF90-F2B639A71906}">
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B101" sqref="A2:B101"/>
+      <selection activeCell="C101" sqref="A1:C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3851,7 +3783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F027F41A-3F89-4169-BF09-5C84751A7741}">
   <dimension ref="A1:C101"/>
   <sheetViews>
@@ -4975,11 +4907,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13A320D-54BF-4776-8BA9-757C38A327D2}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -6099,4 +6031,1128 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E261141-D59B-49F3-85F7-8BC742F70230}">
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0.40239410681399601</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.89369158878504695</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0.36556169429097601</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.80724299065420602</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>0.36740331491712702</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.68341121495327095</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>0.33609576427255999</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.59696261682243001</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>0.31767955801105002</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.53154205607476601</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>0.30294659300184201</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.43574766355140199</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>0.29005524861878501</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>0.34346224677716403</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.38901869158878499</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>0.437384898710866</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.38901869158878499</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>0.49263351749539602</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.42172897196261699</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>0.56077348066298305</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.440420560747663</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>0.68047882136279902</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.47780373831775702</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>0.74493554327808498</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.50817757009345799</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>0.81491712707182296</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.54322429906542102</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>0.90515653775322302</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.56892523364486003</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>0.95119705340699801</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.704439252336448</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>0.875690607734806</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.82593457943925197</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>0.83885819521178595</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.94976635514018704</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>0.67863720073664802</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.95911214953270996</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>0.60128913443830601</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.95911214953270996</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>0.53867403314917095</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.82827102803738295</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>0.50552486187845302</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.730140186915888</v>
+      </c>
+      <c r="C23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>0.474217311233886</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.65303738317756999</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>0.43554327808471499</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.52453271028037396</v>
+      </c>
+      <c r="C25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>0.39686924493554299</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.414719626168224</v>
+      </c>
+      <c r="C26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>0.48342541436464098</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.45677570093457898</v>
+      </c>
+      <c r="C27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>0.55340699815837902</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.57593457943925197</v>
+      </c>
+      <c r="C28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>0.68047882136279902</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.58995327102803696</v>
+      </c>
+      <c r="C29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>0.66574585635359096</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.71378504672897203</v>
+      </c>
+      <c r="C30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>0.58839779005524895</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.76518691588785004</v>
+      </c>
+      <c r="C31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>0.54788213627992599</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.61799065420560695</v>
+      </c>
+      <c r="C32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>0.59392265193370197</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.81892523364486003</v>
+      </c>
+      <c r="C33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>0.73572744014733005</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.81892523364486003</v>
+      </c>
+      <c r="C34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>0.71731123388581897</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.68107476635513997</v>
+      </c>
+      <c r="C35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>0.37292817679557999</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.42172897196261699</v>
+      </c>
+      <c r="C36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.57359813084112099</v>
+      </c>
+      <c r="C37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>0.68600368324125205</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.769859813084112</v>
+      </c>
+      <c r="C38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>0.89226519337016597</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.86799065420560695</v>
+      </c>
+      <c r="C39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>0.80386740331491702</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.95911214953270996</v>
+      </c>
+      <c r="C40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>0.60128913443830601</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.95911214953270996</v>
+      </c>
+      <c r="C41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>0.54604051565377498</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.96144859813084105</v>
+      </c>
+      <c r="C42">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>0.62707182320442001</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.73481308411214896</v>
+      </c>
+      <c r="C43">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>0.79097605893185996</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.67640186915887901</v>
+      </c>
+      <c r="C44">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>0.56261510128913395</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.56892523364486003</v>
+      </c>
+      <c r="C45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>0.77992633517495402</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.76518691588785004</v>
+      </c>
+      <c r="C46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>0.64732965009208099</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.89602803738317804</v>
+      </c>
+      <c r="C47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>0.50920810313075504</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.60397196261682196</v>
+      </c>
+      <c r="C48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>0.68047882136279902</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.545560747663551</v>
+      </c>
+      <c r="C49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>0.824125230202578</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.72079439252336397</v>
+      </c>
+      <c r="C50">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>0.88121546961326003</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.81892523364486003</v>
+      </c>
+      <c r="C51">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>4.5119705340699798E-2</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.95911214953270996</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>9.3001841620626205E-2</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.96144859813084105</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>0.199815837937385</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.94976635514018704</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>8.7476979742173097E-2</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.79789719626168198</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>0.199815837937385</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.84929906542056099</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>0.111418047882136</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.67873831775700899</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>0.20165745856353601</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.68107476635513997</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>0.11878453038674</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.48948598130841098</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>0.231123388581952</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.55257009345794394</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>0.24033149171270701</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.81191588785046698</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>0.10036832412523</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.38668224299065401</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>8.9318600368324105E-2</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.21612149532710301</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>0.12983425414364599</v>
+      </c>
+      <c r="B64" s="1">
+        <v>6.6588785046728799E-2</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>0.218232044198895</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.15537383177570099</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>0.29005524861878501</v>
+      </c>
+      <c r="B66" s="1">
+        <v>7.5934579439252303E-2</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>0.40607734806629803</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.17172897196261699</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>0.56261510128913395</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.20911214953271001</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>0.53314917127071804</v>
+      </c>
+      <c r="B69" s="1">
+        <v>8.9953271028037296E-2</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>0.66390423572743995</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.13901869158878499</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>0.71546961325966796</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0.230140186915888</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>0.800184162062615</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.31892523364485997</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>0.88674033149171305</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.36331775700934599</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>0.96040515653775305</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.41939252336448601</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>0.94014732965009196</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.26752336448598102</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>0.96408839779005495</v>
+      </c>
+      <c r="B76" s="1">
+        <v>9.9299065420560703E-2</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>0.79465930018416198</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.19275700934579401</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>0.76887661141804797</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.12266355140186901</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>0.64180478821362796</v>
+      </c>
+      <c r="B79" s="1">
+        <v>6.4252336448598096E-2</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>0.47237569060773499</v>
+      </c>
+      <c r="B80" s="1">
+        <v>5.9579439252336303E-2</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>0.36740331491712702</v>
+      </c>
+      <c r="B81" s="1">
+        <v>4.5560747663551303E-2</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>0.24217311233885799</v>
+      </c>
+      <c r="B82" s="1">
+        <v>7.3598130841121601E-2</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>9.6685082872928194E-2</v>
+      </c>
+      <c r="B83" s="1">
+        <v>3.6214953271028097E-2</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>4.1436464088397802E-2</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.132009345794393</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>0.115101289134438</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.21612149532710301</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>8.9318600368324105E-2</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.31191588785046698</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>0.19613259668508301</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.42172897196261699</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>0.15930018416206301</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.50817757009345799</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>0.13535911602209899</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.59462616822429903</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>0.15377532228360999</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.67406542056074803</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>0.218232044198895</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.809579439252336</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>0.12983425414364599</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.88668224299065401</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>0.24217311233885799</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.954439252336448</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>0.29871086556169402</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.940420560747663</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>0.25322283609576401</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.86331775700934599</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>0.113259668508287</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.809579439252336</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>0.18324125230202601</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.59696261682243001</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>0.113259668508287</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0.49883177570093501</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>0.55893186003683204</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.16004672897196301</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>0.774401473296501</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.28855140186915901</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>0.91804788213627997</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0.41004672897196298</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>